--- a/spreadsheet/macrofree/hci_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.ja.xlsx
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ホスト</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>少なくとも 5 つのネットワーク コントローラー VM が展開されている</t>
+          <t>VMSwitch がコンピューティングと管理トラフィックで共有されている場合は、管理トラフィックに VLAN ID のタグを付ける必要があります</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>これにより、NC のアップグレード中に少なくとも 3 つの NC が常にアクティブになります。</t>
+          <t>これにより、管理トラフィックが VM トラフィックに公開されなくなります</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1999,12 +1999,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="n"/>
+      <c r="H28" s="15" t="inlineStr"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
+          <t>abc85d0e-0ebd-4589-a777-0fa8ceb1d0f0</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2025,13 +2025,17 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>SDN インフラストラクチャのバックアップが構成およびテストされている</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="n"/>
+          <t>少なくとも 5 つのネットワーク コントローラー VM が展開されている</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>これにより、NC のアップグレード中に少なくとも 3 つの NC が常にアクティブになります。</t>
+        </is>
+      </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2040,16 +2044,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
+          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2060,23 +2060,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>クラスター</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SCOM マネージド インスタンスは、より複雑な監視とアラートのシナリオで検討されています</t>
+          <t>SDN インフラストラクチャのバックアップが構成およびテストされている</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2085,12 +2085,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
+          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2111,13 +2115,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>アラートは、Azure モニター、SCOM、またはサード パーティのソリューションを使用してクラスターに対して構成されています</t>
+          <t>SCOM マネージド インスタンスは、より複雑な監視とアラートのシナリオで検討されています</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2126,16 +2130,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
+          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Insights がクラスター レベルで有効になっており、すべてのノードがデータを報告している</t>
+          <t>アラートは、Azure モニター、SCOM、またはサード パーティのソリューションを使用してクラスターに対して構成されています</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2173,7 +2173,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
+          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure 監視エージェントがホストにデプロイされ、適切なデータ収集ルールが構成されている</t>
+          <t>Insights がクラスター レベルで有効になっており、すべてのノードがデータを報告している</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2227,7 +2227,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
+          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>ハードウェア</t>
+          <t>クラスター</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>関連するハードウェア監視が構成されている</t>
+          <t>Azure 監視エージェントがホストにデプロイされ、適切なデータ収集ルールが構成されている</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2263,13 +2263,17 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="n"/>
+      <c r="H34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+        </is>
+      </c>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
+          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>関連するハードウェア アラートが構成されている</t>
+          <t>関連するハードウェア監視が構成されている</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2305,17 +2309,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
+          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2326,23 +2326,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>VM 管理 - リソース ブリッジ</t>
+          <t>ハードウェア</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure CLI は、WAC からの RB 管理を有効にするためにすべてのノードにインストールされています</t>
+          <t>関連するハードウェア アラートが構成されている</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2351,13 +2351,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
+          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2368,7 +2372,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>DHCP は、Azure からの VM デプロイ時のゲスト構成をサポートするためにクラスターで使用できます</t>
+          <t>Azure CLI は、WAC からの RB 管理を有効にするためにすべてのノードにインストールされています</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2399,7 +2403,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
+          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2410,23 +2414,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>バックアップと災害復旧</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>VM 管理 - リソース ブリッジ</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>HCI VM のバックアップが MABS またはサード パーティ製ソリューションを使用して構成されている</t>
+          <t>DHCP は、Azure からの VM デプロイ時のゲスト構成をサポートするためにクラスターで使用できます</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2435,17 +2439,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
+          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2456,17 +2456,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成または構成スクリプトが文書化され、保守されている</t>
+          <t>HCI VM のバックアップが MABS またはサード パーティ製ソリューションを使用して構成されている</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2481,13 +2481,17 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
+        </is>
+      </c>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
+          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>クラスター監視が構成されている</t>
+          <t>クラスター構成または構成スクリプトが文書化され、保守されている</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2523,17 +2527,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
+          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>クラスター対応更新が Windows およびハードウェア更新プログラム用に構成されている (利用可能な場合)</t>
+          <t>クラスター監視は、ノードが 5 つ未満のクラスター用に構成されています</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
+          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2600,13 +2600,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>クラスター検証が構成済みクラスターに対して実行されました</t>
+          <t>クラスター対応更新が Windows およびハードウェア更新プログラム用に構成されている (利用可能な場合)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
+          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure 特典は、クラスター レベルと VM レベルで有効になっています</t>
+          <t>クラスター検証が構成済みクラスターに対して実行されました</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
+          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>環境を検証するために環境チェッカー モジュールが実行されました</t>
+          <t>Azure 特典は、クラスター レベルと VM レベルで有効になっています</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2709,7 +2709,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2717,7 +2717,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
+          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>HCI クラスターとノードの Active Directory 組織単位のグループ ポリシーの継承がブロックされているか、適用されたポリシーが互換性の問題 (通常は WinRM と PowerShell 実行ポリシー) について評価されている</t>
+          <t>環境を検証するために環境チェッカー モジュールが実行されました</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2755,14 +2755,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
+          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>WAC は最新リリースであり、拡張機能を自動的にアップグレードするように構成されています</t>
+          <t>HCI クラスターとノードの Active Directory 組織単位のグループ ポリシーの継承がブロックされているか、適用されたポリシーが互換性の問題 (通常は WinRM と PowerShell 実行ポリシー) について評価されている</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2798,13 +2798,17 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
+          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2815,17 +2819,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>クラスター構成</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>同期レプリケーションが AAD で構成されている場合、各サイト間に 5 ミリ秒未満の待機時間があります</t>
+          <t>WAC は最新リリースであり、拡張機能を自動的にアップグレードするように構成されています</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2846,7 +2850,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
+          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2857,7 +2861,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2867,13 +2871,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>サイトの障害と回復について詳細な計画があります</t>
+          <t>同期レプリケーションが AAD で構成されている場合、各サイト間に 5 ミリ秒未満の待機時間があります</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2882,12 +2886,16 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
+          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2908,13 +2916,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>個別の vLAN とネットワークは、両方のサイトのレプリケーション ネットワークごとに使用されます</t>
+          <t>管理ネットワーク、レプリケーション ネットワーク、およびストレージ ネットワークは、拡張 VLAN 構成から除外され、ルーティングされ、異なるサブネットに配置されます。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2928,7 +2936,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+          <t>3277558e-3155-4088-b49a-78594cb4ce1a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2939,23 +2947,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>バックアップと災害復旧</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>ストレッチ クラスタリング</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery は、DR の目的で検討されています</t>
+          <t>サイトの障害と回復について詳細な計画があります</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2964,17 +2972,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2983,147 +2987,404 @@
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスタリング</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>個別の vLAN とネットワークは、両方のサイトのレプリケーション ネットワークごとに使用されます</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスタリング</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>クラウド監視またはファイル共有監視のいずれかを、ノードが 5 つ未満のクラスターのクラスター クォーラムの 3 番目のサイトで使用する</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b5</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスタリング</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>データ重複排除を使用する場合は、1 次/ソース・ボリュームでのみ使用可能にします</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b6</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスタリング</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>ストレージバッキングログボリュームは、(理想的には)高速であるか、少なくとも容量ストレージと同じ速さである必要があります</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/storage-replica/stretch-cluster-replication-using-shared-storage#provision-operating-system-features-roles-storage-and-network</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>ac527887-f6f4-40a3-b883-e04d704f013b</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>バックアップと災害復旧</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>障害復旧</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery は、DR の目的で検討されています</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>ホスト</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>BitLocker は、必要に応じて、ボリューム暗号化のために CSV で有効になっています</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/operating-system-security/data-protection/bitlocker/protecting-cluster-shared-volumes-and-storage-area-networks-with-bitlocker</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>03e65fdc-2628-4a1a-ba2e-a5174340ba52</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>ホスト</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>必要に応じて、SMB 暗号化が有効になっている</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/file-server/smb-security</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>9645d2e6-ba28-453c-b6d5-d9ef29fc34be</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>ホスト</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>マイクロソフトのディフェンダーアンチウイルスは、すべてのノードで有効になっています</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-antivirus-on-windows-server</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>8f03437a-5068-4486-9a78-0402ce771298</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>ホスト</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>資格情報ガードが構成されている (該当する場合)</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/identity-protection/credential-guard/credential-guard-manage</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>dba6b211-fc02-43b3-b7c8-f163c188332e</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -7010,7 +7271,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/hci_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>計画されているすべてのストレージプールで直接接続型ストレージ(SATA、SAS、NVMe)を使用する必要がある</t>
+          <t>計画されているすべてのストレージプールは、直接接続ストレージ(SATA、SAS、NVMe)を使用する必要があります</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ディスクはすべてのノードで対称的</t>
+          <t>ディスクはすべてのノードで対称的です</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>パリティ・タイプのディスク冗長性は、低I/Oボリューム(バックアップ/アーカイブ)にのみ使用してください。</t>
+          <t>パリティタイプのディスク冗長性は、低I/Oボリューム(バックアップ/アーカイブ)にのみ使用してください</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>記憶域プールに使用可能な容量を持つ容量のディスクが少なくとも 2 つあることを確認します</t>
+          <t>ストレージ・プールに使用可能な容量を持つ容量ディスクが少なくとも2つあることを確認します</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>"区切られた割り当て" は、マルチノード障害時のボリュームの回復性を向上させるために考慮されています</t>
+          <t>「区切り割り」は、マルチノード障害時のボリュームの回復性を向上させるために検討されています</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>ノードごとにディスクの種類ごとに少なくとも 1 種類が予約ディスクとして考慮されています</t>
+          <t>ノードごとに各ディスクの種類が少なくとも 1 つ、予備ディスクとして考慮されています</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,17 +1432,17 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>S2D</t>
+          <t>S2Dの</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>VMFleetは、ベースラインストレージパフォーマンスへのワークロードのデプロイ前に実行されています</t>
+          <t>VMFleetは、ワークロードのデプロイ前に実行され、ストレージのパフォーマンスをベースラインにしています</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>VMFleet は、ストレージ サブシステムのパフォーマンスを測定するために使用できるツールであり、ワークロードのデプロイ前にパフォーマンスをベースライン化するために最適に使用されます</t>
+          <t>VMFleet は、ストレージ サブシステムのパフォーマンスを測定するために使用できるツールであり、ワークロードのデプロイ前にパフォーマンスのベースラインを設定するのに最適です</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>ホスト OS</t>
+          <t>ホストOS</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>OS ドライブは専用のストレージ コントローラーを使用します</t>
+          <t>OSドライブは専用のストレージ・コントローラを使用</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>ホスト OS</t>
+          <t>ホストOS</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>CSV のメモリ内読み取りキャッシュが有効で、適切に構成されている</t>
+          <t>CSV インメモリ読み取りキャッシュが有効になっていて、適切に構成されている</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ホストのネットワーク構成はネットワーク ATC によって管理され、インテントは正常です</t>
+          <t>ホストのネットワーク構成は Network ATC によって管理され、意図は正常です</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク HUD が構成されている</t>
+          <t>ネットワークHUDが設定されました</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>スイッチレス設計では、デュアルリンクフルメッシュ接続が実装されています</t>
+          <t>スイッチレス設計では、デュアルリンクのフルメッシュ接続が実装されています</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>クラスタが3つ以上のノードで構成されている場合は、スイッチド・ストレージ・ネットワークが実装されています</t>
+          <t>クラスタが 3 つ以上のノードで構成されている場合は、スイッチド・ストレージ・ネットワークが実装されています</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>RDMA が記憶域ネットワークで有効になっている</t>
+          <t>RDMA はストレージ ネットワークで有効になっています</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>RDMA 構成を検証するために Test-RDMA.ps1 が実行されました</t>
+          <t>Test-RDMA.ps1 が実行され、RDMA 構成が検証されました</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>VMSwitch がコンピューティングと管理トラフィックで共有されている場合は、管理トラフィックに VLAN ID のタグを付ける必要があります</t>
+          <t>VMSwitch がコンピューティング トラフィックと管理トラフィックで共有されている場合は、管理トラフィックに VLAN ID のタグを付ける必要があります</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>SDNの</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>少なくとも 5 つのネットワーク コントローラー VM が展開されている</t>
+          <t>少なくとも 3 つのネットワーク コントローラー VM がデプロイされている</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>これにより、NC のアップグレード中に少なくとも 3 つの NC が常にアクティブになります。</t>
+          <t>これにより、NC アップグレード中も常に 3 つ以上の NC がアクティブになります。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>SDNの</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SDN インフラストラクチャのバックアップが構成およびテストされている</t>
+          <t>SDNインフラストラクチャのバックアップが構成され、テストされている</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>SCOM マネージド インスタンスは、より複雑な監視とアラートのシナリオで検討されています</t>
+          <t>SCOM Managed Instance は、より複雑な監視とアラートのシナリオで検討されています</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>アラートは、Azure モニター、SCOM、またはサード パーティのソリューションを使用してクラスターに対して構成されています</t>
+          <t>アラートは、Azure Monitor、SCOM、またはサードパーティのソリューションを使用して、クラスターに対して構成されています</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Insights がクラスター レベルで有効になっており、すべてのノードがデータを報告している</t>
+          <t>インサイトはクラスターレベルで有効になっており、すべてのノードがデータを報告しています</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Azure 監視エージェントがホストにデプロイされ、適切なデータ収集ルールが構成されている</t>
+          <t>Azure Monitoring Agent がホストにデプロイされ、適切なデータ収集ルールが構成されている</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure CLI は、WAC からの RB 管理を有効にするためにすべてのノードにインストールされています</t>
+          <t>Azure CLI は、WAC からの RB 管理を有効にするために、すべてのノードにインストールされています</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>DHCP は、Azure からの VM デプロイ時のゲスト構成をサポートするためにクラスターで使用できます</t>
+          <t>DHCP は、Azure からの VM デプロイ時にゲスト構成をサポートするためにクラスターで使用できます</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>仮想マシン</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>HCI VM のバックアップが MABS またはサード パーティ製ソリューションを使用して構成されている</t>
+          <t>HCI VM のバックアップは、MABS またはサードパーティのソリューションを使用して構成されています</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成または構成スクリプトが文書化され、保守されている</t>
+          <t>クラスタ構成または構成スクリプトが文書化され、維持されている</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>クラスター監視は、ノードが 5 つ未満のクラスター用に構成されています</t>
+          <t>クラスター監視は、ノードが 5 未満のクラスターに対して構成されています</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2595,12 +2595,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>クラスター対応更新が Windows およびハードウェア更新プログラム用に構成されている (利用可能な場合)</t>
+          <t>クラスタ対応更新は、Windows およびハードウェアの更新プログラム (利用可能な場合) 用に構成されています</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>クラスター検証が構成済みクラスターに対して実行されました</t>
+          <t>クラスターの検証は、構成されたクラスターに対して実行されました</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2687,12 +2687,12 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure 特典は、クラスター レベルと VM レベルで有効になっています</t>
+          <t>Azure の利点は、クラスター レベルと VM レベルで有効になっています</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>HCI クラスターとノードの Active Directory 組織単位のグループ ポリシーの継承がブロックされているか、適用されたポリシーが互換性の問題 (通常は WinRM と PowerShell 実行ポリシー) について評価されている</t>
+          <t>HCI クラスターとノードの Active Directory 組織単位でのグループ ポリシーの継承がブロックされているか、適用されたポリシーで互換性の問題 (通常は WinRM と PowerShell 実行ポリシー) が評価されています</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>クラスター構成</t>
+          <t>クラスタ構成</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>管理ネットワーク、レプリケーション ネットワーク、およびストレージ ネットワークは、拡張 VLAN 構成から除外され、ルーティングされ、異なるサブネットに配置されます。</t>
+          <t>拡張VLAN構成から除外された管理ネットワーク、レプリケーション・ネットワーク、ストレージ・ネットワークは、異なるサブネットにルーティングされます</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2952,12 +2952,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>サイトの障害と回復について詳細な計画があります</t>
+          <t>サイトの障害と復旧に関する詳細な計画がある</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>個別の vLAN とネットワークは、両方のサイトのレプリケーション ネットワークごとに使用されます</t>
+          <t>両方のサイトのレプリケーション ネットワークごとに個別の vLAN とネットワークが使用されます</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3036,12 +3036,12 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>クラウド監視またはファイル共有監視のいずれかを、ノードが 5 つ未満のクラスターのクラスター クォーラムの 3 番目のサイトで使用する</t>
+          <t>クラウド監視またはファイル共有監視を 3 番目のサイトで、ノードが 5 未満のクラスターのクラスター クォーラムに使用します</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>データ重複排除を使用する場合は、1 次/ソース・ボリュームでのみ使用可能にします</t>
+          <t>データ重複排除を使用する場合は、プライマリ/ソースボリュームでのみ有効にします</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタリング</t>
+          <t>ストレッチ クラスタリング (Stretch Clustering)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>ストレージバッキングログボリュームは、(理想的には)高速であるか、少なくとも容量ストレージと同じ速さである必要があります</t>
+          <t>ストレージのバッキング ログ ボリュームは、(理想的には) 高速であるか、少なくとも容量ストレージと同じ速度である必要があります</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3173,12 +3173,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery は、DR の目的で検討されています</t>
+          <t>Azure Site Recovery は DR の目的で検討されています</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>BitLocker は、必要に応じて、ボリューム暗号化のために CSV で有効になっています</t>
+          <t>必要に応じて、ボリューム暗号化のために CSV で BitLocker が有効になっている</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、SMB 暗号化が有効になっている</t>
+          <t>必要に応じて、SMB 暗号化が有効になっています</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのディフェンダーアンチウイルスは、すべてのノードで有効になっています</t>
+          <t>Microsoft Defender ウイルス対策がすべてのノードで有効になっています</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>資格情報ガードが構成されている (該当する場合)</t>
+          <t>Credential Guard が構成されている (必要に応じて)</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -7286,7 +7286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7443,7 +7443,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7481,6 +7481,13 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安全</t>
         </is>
       </c>
     </row>
